--- a/resources/wheels/233 - Красовский.xlsx
+++ b/resources/wheels/233 - Красовский.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -688,16 +688,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -896,9 +896,9 @@
       <c r="F16" s="19">
         <v>53.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>77.5</v>
+        <v>93.37599999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -992,7 +992,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.985</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1002,7 +1004,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.148</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1012,7 +1016,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.743</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -1531,16 +1537,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1737,9 +1743,9 @@
       <c r="F16" s="19">
         <v>53.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>77.5</v>
+        <v>93.37599999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1833,7 +1839,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.985</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1843,7 +1851,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.148</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1853,7 +1863,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.743</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -2372,16 +2384,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2578,9 +2590,9 @@
       <c r="F16" s="19">
         <v>53.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>77.5</v>
+        <v>93.37599999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2674,7 +2686,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.985</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -2684,7 +2698,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.148</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -2694,7 +2710,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.743</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -3213,16 +3231,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3421,9 +3439,9 @@
       <c r="F16" s="19">
         <v>53.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>77.5</v>
+        <v>93.37599999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3517,7 +3535,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.985</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -3527,7 +3547,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.148</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -3537,7 +3559,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.743</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4056,16 +4080,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4264,9 +4288,9 @@
       <c r="F16" s="19">
         <v>53.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>77.5</v>
+        <v>93.37599999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4360,7 +4384,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.985</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -4370,7 +4396,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.148</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -4380,7 +4408,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.743</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4899,16 +4929,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5107,9 +5137,9 @@
       <c r="F16" s="19">
         <v>53.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>77.5</v>
+        <v>93.37599999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5203,7 +5233,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.985</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -5213,7 +5245,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.148</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5223,7 +5257,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.743</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -5742,16 +5778,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5948,9 +5984,9 @@
       <c r="F16" s="19">
         <v>53.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>77.5</v>
+        <v>93.37599999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6044,7 +6080,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.985</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6054,7 +6092,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.148</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6064,7 +6104,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.743</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -6583,16 +6625,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6789,9 +6831,9 @@
       <c r="F16" s="19">
         <v>53.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>77.5</v>
+        <v>93.37599999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6885,7 +6927,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.985</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6895,7 +6939,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.148</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6905,7 +6951,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.743</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -7424,16 +7472,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7630,9 +7678,9 @@
       <c r="F16" s="19">
         <v>53.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>77.5</v>
+        <v>93.37599999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7726,7 +7774,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.985</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -7736,7 +7786,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.148</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -7746,7 +7798,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.743</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -8265,16 +8319,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8471,9 +8525,9 @@
       <c r="F16" s="19">
         <v>53.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>77.5</v>
+        <v>93.37599999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8567,7 +8621,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.985</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -8577,7 +8633,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.148</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -8587,7 +8645,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.743</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9106,16 +9166,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9312,9 +9372,9 @@
       <c r="F16" s="19">
         <v>53.9</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>77.5</v>
+        <v>93.37599999999999</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9408,7 +9468,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.985</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -9418,7 +9480,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.148</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -9428,7 +9492,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.743</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
